--- a/DATA_goal/Junction_Flooding_7.xlsx
+++ b/DATA_goal/Junction_Flooding_7.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>44781.86109953704</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>3.84</v>
@@ -1663,7 +1663,7 @@
         <v>0.52</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>2.45</v>
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>3.47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>101.37</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_7.xlsx
+++ b/DATA_goal/Junction_Flooding_7.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.73</v>
+        <v>3.27</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.13</v>
+        <v>2.51</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.36</v>
+        <v>3.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>175.75</v>
+        <v>17.57</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.36</v>
+        <v>3.34</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.6</v>
+        <v>2.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.66</v>
+        <v>3.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.49</v>
+        <v>3.75</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.91</v>
+        <v>2.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.24</v>
+        <v>5.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.69</v>
+        <v>19.87</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.85</v>
+        <v>3.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.08</v>
+        <v>2.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.97</v>
+        <v>2.5</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.92</v>
+        <v>4.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.25</v>
+        <v>3.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.25</v>
+        <v>2.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.63</v>
+        <v>4.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.64</v>
+        <v>15.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.53</v>
+        <v>3.05</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.82</v>
+        <v>2.08</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>39.86</v>
+        <v>3.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.59</v>
+        <v>3.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.49</v>
+        <v>3.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.42</v>
+        <v>5.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.21</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.69</v>
+        <v>19.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.84</v>
+        <v>3.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.34</v>
+        <v>2.53</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.34</v>
+        <v>2.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.55</v>
+        <v>1.16</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.68</v>
+        <v>4.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>44781.82638888889</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>37.6</v>
+        <v>3.76</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.61</v>
+        <v>3.06</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>53.24</v>
+        <v>5.32</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.45</v>
+        <v>1.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>198.69</v>
+        <v>19.87</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>37.87</v>
+        <v>3.79</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.41</v>
+        <v>2.54</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>25.68</v>
+        <v>2.57</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>48.45</v>
+        <v>4.85</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>44781.83333333334</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>21.19</v>
+        <v>2.12</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>38.68</v>
+        <v>3.87</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>135.75</v>
+        <v>13.57</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>26.35</v>
+        <v>2.64</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>17.65</v>
+        <v>1.76</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>35.28</v>
+        <v>3.53</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>24.03</v>
+        <v>2.4</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>34.65</v>
+        <v>3.46</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>124.29</v>
+        <v>12.43</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>24.21</v>
+        <v>2.42</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>31.52</v>
+        <v>3.15</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25.23</v>
+        <v>2.52</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>84.23999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>21.5</v>
+        <v>2.15</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>72.78</v>
+        <v>7.28</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>19.59</v>
+        <v>1.96</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_7.xlsx
+++ b/DATA_goal/Junction_Flooding_7.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,36 +443,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.79861111111</v>
+        <v>44383.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.27</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.51</v>
+        <v>1.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.86</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.52</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.89</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>0.33</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>1.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.80555555555</v>
+        <v>44383.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.73</v>
+        <v>0.66</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.75</v>
+        <v>1.21</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.99</v>
+        <v>1.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.12</v>
+        <v>1.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.09</v>
+        <v>0.7</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.32</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.57</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.59</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.62</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.91</v>
+        <v>0.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>6.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>1.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.51</v>
+        <v>0.96</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.5</v>
+        <v>0.77</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.38</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.17</v>
+        <v>0.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.69</v>
+        <v>1.4</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.8125</v>
+        <v>44383.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.89</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.03</v>
+        <v>1.79</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.42</v>
+        <v>1.63</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.36</v>
+        <v>2.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.08</v>
-      </c>
       <c r="L4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.83</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.68</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.86</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.05</v>
+        <v>1.85</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.65</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.03</v>
+        <v>1.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.66</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.08</v>
+        <v>1.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.27</v>
+        <v>0.84</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.99</v>
+        <v>2.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.81944444445</v>
+        <v>44383.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.84</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="Z5" s="4" t="n">
         <v>1.51</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.53</v>
-      </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.71</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.77</v>
+        <v>2.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44781.82638888889</v>
+        <v>44383.07637731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.73</v>
+        <v>10.22</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.27</v>
+        <v>7.93</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.76</v>
+        <v>21.39</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.06</v>
+        <v>18.61</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.35</v>
+        <v>7.71</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.32</v>
+        <v>31.46</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.09</v>
+        <v>11.98</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.93</v>
+        <v>5.47</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.37</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.51</v>
+        <v>8.99</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.6</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.43</v>
+        <v>2.51</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.35</v>
+        <v>7.89</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.92</v>
+        <v>11.06</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.14</v>
+        <v>6.25</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>19.87</v>
+        <v>112.7</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.79</v>
+        <v>21.85</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.25</v>
+        <v>7.45</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.54</v>
+        <v>15.16</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.34</v>
+        <v>7.83</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>1.04</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.57</v>
+        <v>14.85</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.1</v>
+        <v>6.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.98</v>
+        <v>5.74</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.15</v>
+        <v>6.74</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.59</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.85</v>
+        <v>28.11</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.7</v>
+        <v>4.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44781.83333333334</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44781.84027777778</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44781.84722222222</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44781.85416666666</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44781.86109953704</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>3.47</v>
+        <v>8.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_7.xlsx
+++ b/DATA_goal/Junction_Flooding_7.xlsx
@@ -461,7 +461,7 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -471,7 +471,7 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44383.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44383.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.93</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.66</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.25</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.4</v>
+        <v>14.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44383.0625</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44383.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.18</v>
+        <v>31.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.84</v>
+        <v>118.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.28</v>
+        <v>22.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.83</v>
+        <v>28.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_7.xlsx
+++ b/DATA_goal/Junction_Flooding_7.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44383.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>3.31</v>
@@ -759,91 +759,91 @@
         <v>44383.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.57</v>
+        <v>6.571</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.58</v>
+        <v>5.581</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.09</v>
+        <v>12.088</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.42</v>
+        <v>12.424</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.4</v>
+        <v>4.404</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.77</v>
+        <v>16.769</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>6.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.23</v>
+        <v>3.234</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.68</v>
+        <v>5.683</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.93</v>
+        <v>5.934</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.22</v>
+        <v>6.215</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.459</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.93</v>
+        <v>4.929</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.4</v>
+        <v>6.402</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.34</v>
+        <v>3.335</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.413</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.65000000000001</v>
+        <v>66.646</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.02</v>
+        <v>13.023</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>5.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.609</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.67</v>
+        <v>4.671</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.654</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.662</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.365</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.78</v>
+        <v>3.777</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.25</v>
+        <v>4.248</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.49</v>
+        <v>6.494</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>14.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.33</v>
+        <v>5.327</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44383.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.07</v>
+        <v>7.074</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.85</v>
+        <v>17.855</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.34</v>
+        <v>16.339</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.441</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>25.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.07</v>
+        <v>10.072</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.63</v>
+        <v>4.627</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.45</v>
+        <v>7.446</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.85</v>
+        <v>7.853</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.26</v>
+        <v>8.257</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.11</v>
+        <v>2.114</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.78</v>
+        <v>6.785</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.281000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>5.12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.41</v>
+        <v>95.41500000000001</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>18.49</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.547</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.08</v>
+        <v>13.082</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.642</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>11.88</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.1</v>
+        <v>5.098</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.01</v>
+        <v>5.012</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.83</v>
+        <v>5.826</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.43</v>
+        <v>8.428000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.1</v>
+        <v>22.104</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.73</v>
+        <v>3.733</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.6</v>
+        <v>7.597</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.380000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44383.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_7.xlsx
+++ b/DATA_goal/Junction_Flooding_7.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -467,11 +467,11 @@
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,55 +967,55 @@
         <v>44383.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.73</v>
+        <v>10.734</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.372999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.29</v>
+        <v>22.289</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.59</v>
+        <v>19.594</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.034000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.83</v>
+        <v>31.826</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.5</v>
+        <v>12.502</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.71</v>
+        <v>5.708</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.91</v>
+        <v>8.907</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.954000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.49</v>
+        <v>6.485</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.45</v>
@@ -1024,46 +1024,150 @@
         <v>118.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.81</v>
+        <v>22.811</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.85</v>
+        <v>7.847</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.89</v>
+        <v>15.886</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.18</v>
+        <v>8.183</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.11</v>
+        <v>15.109</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.43</v>
+        <v>6.426</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.04</v>
+        <v>6.037</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.08</v>
+        <v>7.076</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.06</v>
+        <v>10.061</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.3</v>
+        <v>28.302</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.49</v>
+        <v>4.491</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.384</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44383.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_7.xlsx
+++ b/DATA_goal/Junction_Flooding_7.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -467,11 +467,11 @@
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,55 +967,55 @@
         <v>44383.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.734</v>
+        <v>10.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.372999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.289</v>
+        <v>22.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.594</v>
+        <v>19.59</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.034000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.826</v>
+        <v>31.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.502</v>
+        <v>12.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.708</v>
+        <v>5.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.907</v>
+        <v>8.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.452999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.954000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.276</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.533</v>
+        <v>11.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.485</v>
+        <v>6.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.45</v>
@@ -1024,150 +1024,46 @@
         <v>118.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.811</v>
+        <v>22.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.847</v>
+        <v>7.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.886</v>
+        <v>15.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.183</v>
+        <v>8.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.088</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.109</v>
+        <v>15.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.426</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.037</v>
+        <v>6.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.076</v>
+        <v>7.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.061</v>
+        <v>10.06</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.302</v>
+        <v>28.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.491</v>
+        <v>4.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.384</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44383.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.98</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
   </sheetData>
